--- a/output/fit_clients/fit_round_394.xlsx
+++ b/output/fit_clients/fit_round_394.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1941203812.914786</v>
+        <v>1606870532.948161</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07522436905692166</v>
+        <v>0.1108277205425805</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03178179082059641</v>
+        <v>0.04263494380878179</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>970601894.2085735</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2448824528.325891</v>
+        <v>2111717537.543781</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1619964931904629</v>
+        <v>0.1239248026243914</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03373145620627371</v>
+        <v>0.04119035298736383</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1224412373.741112</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4609873297.431246</v>
+        <v>4296658116.035564</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1410017880519553</v>
+        <v>0.1090745174400496</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03591809587458976</v>
+        <v>0.03447792436612358</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>142</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2304936706.105306</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2825841655.388952</v>
+        <v>3602899533.132051</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09577976335236243</v>
+        <v>0.07980583241991344</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04347962849767388</v>
+        <v>0.04261368833931387</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>145</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1412920909.111222</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2460209554.674546</v>
+        <v>1972294718.004003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09138529409462468</v>
+        <v>0.127350240334432</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05489594242978414</v>
+        <v>0.04211665167667607</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1230104757.138325</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2095368774.577526</v>
+        <v>2127741982.175503</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06168597272780963</v>
+        <v>0.09611104697727307</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03455035572175132</v>
+        <v>0.03021953825627637</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>124</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1047684439.33149</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3292582813.274176</v>
+        <v>2756596959.869734</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2050792760835991</v>
+        <v>0.1601331347246765</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02378878284707747</v>
+        <v>0.02330334018709161</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>125</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1646291494.074666</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1801889453.787899</v>
+        <v>2193582292.145005</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1390908865179419</v>
+        <v>0.1652604773683261</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02913148844479857</v>
+        <v>0.02903225093791955</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>900944781.0076141</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4379487917.666684</v>
+        <v>3964622892.750864</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1303614592208867</v>
+        <v>0.19514399715693</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05058612361791975</v>
+        <v>0.04728345294903</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>165</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2189744010.106328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3605948096.97191</v>
+        <v>3650867914.269326</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1259495902987622</v>
+        <v>0.1856779038168234</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04315426118857033</v>
+        <v>0.04066791963582925</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>162</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1802974033.70103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3236360481.79666</v>
+        <v>3261693006.494056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1199913745106561</v>
+        <v>0.1215097355431547</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04902294971739358</v>
+        <v>0.03944692720336623</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>134</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1618180280.555148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3424245796.002202</v>
+        <v>4238664335.318161</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08463314962723428</v>
+        <v>0.07008275399705104</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02691408316480243</v>
+        <v>0.02175628197490401</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>132</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1712122982.188158</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2758915272.76805</v>
+        <v>2959111290.274931</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1757517689681307</v>
+        <v>0.1664366409553856</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02983966732832435</v>
+        <v>0.02913729626219373</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>126</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1379457688.295848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1636437005.178367</v>
+        <v>1486031773.808243</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0691097265826683</v>
+        <v>0.1044693876043493</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03397613978748061</v>
+        <v>0.04821978706595135</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>818218619.0333751</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2260319840.707747</v>
+        <v>1869560344.500788</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1157832412742385</v>
+        <v>0.103274663604311</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04937916431096712</v>
+        <v>0.04665665311570419</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>81</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1130159972.608783</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3304405543.82032</v>
+        <v>3835399935.56999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1197352698163088</v>
+        <v>0.1552613037884306</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04520271643887842</v>
+        <v>0.0396704320557533</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>116</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1652202840.861353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3753313725.168192</v>
+        <v>2415296685.672663</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1418256526531479</v>
+        <v>0.1357663224487878</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03211987657280669</v>
+        <v>0.02474522921247288</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>129</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1876656838.272558</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>948423667.824766</v>
+        <v>1297071329.387777</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1181873804563315</v>
+        <v>0.1608603990187027</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02155889360359691</v>
+        <v>0.02211543182076382</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>474211850.613376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1724985003.07082</v>
+        <v>1981119010.495266</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1539711659856161</v>
+        <v>0.1093663577429834</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02647890529596249</v>
+        <v>0.02093015841414736</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>862492557.1963096</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2279109787.907126</v>
+        <v>2497729474.997792</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09024390386149291</v>
+        <v>0.08795943367242515</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03970328795150111</v>
+        <v>0.03928650831022081</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>32</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1139554903.221669</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3310035446.487381</v>
+        <v>3011789947.541386</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1041615860517293</v>
+        <v>0.1056145879960454</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04764914586857997</v>
+        <v>0.04258927422982763</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1655017766.219865</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1236698882.031923</v>
+        <v>1297232594.274851</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1288035379918941</v>
+        <v>0.1797106299323395</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04387642341790594</v>
+        <v>0.04109854390857132</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>618349471.3364006</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4088852916.214988</v>
+        <v>2536625629.030017</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1258487994288852</v>
+        <v>0.1003466901044749</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03462720249221053</v>
+        <v>0.02794942918959634</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>115</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2044426420.143491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1189025150.467827</v>
+        <v>1299392775.754194</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07887244477725178</v>
+        <v>0.08428337951610142</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0291345289930989</v>
+        <v>0.02805712853388161</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>594512595.7620513</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1305603671.789308</v>
+        <v>1235889197.797345</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08972023662612225</v>
+        <v>0.1033134906603722</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02688503230604886</v>
+        <v>0.03271015789883094</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>652801882.7720581</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4613226376.591374</v>
+        <v>3625430907.734745</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1044422172209106</v>
+        <v>0.154561983776284</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0249580147552374</v>
+        <v>0.01847705710030058</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>100</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2306613167.980264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2409111446.760244</v>
+        <v>3704939869.566555</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1129882708796766</v>
+        <v>0.09532797008228938</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03039197848384856</v>
+        <v>0.03082826629963792</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>127</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1204555683.349052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5468420920.24233</v>
+        <v>4373985552.879976</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1385763691173104</v>
+        <v>0.1026366771636272</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03064718382566453</v>
+        <v>0.03545140226694332</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>174</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2734210375.221235</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1477619189.487093</v>
+        <v>2293084789.263435</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09203434753842052</v>
+        <v>0.1147756784808037</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02459974107706916</v>
+        <v>0.03232571358610879</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>738809572.6959363</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1197127504.506983</v>
+        <v>1369022585.294963</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0756692723461897</v>
+        <v>0.08212253936376313</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03538945251362713</v>
+        <v>0.04399989555973858</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>598563704.4105704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1529641621.411041</v>
+        <v>1452385029.607466</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08039549810295134</v>
+        <v>0.08245975867193663</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03485715868313798</v>
+        <v>0.02642212766229301</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>764820885.1916254</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2565960122.937753</v>
+        <v>2407849745.847858</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1785282926079759</v>
+        <v>0.1903744385115136</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04545211118246068</v>
+        <v>0.05605705074107808</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1282980094.065219</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1374534724.467851</v>
+        <v>1036270320.286702</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07555950022942477</v>
+        <v>0.07548219565517009</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02770827131409044</v>
+        <v>0.01907260628306571</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>687267338.650669</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1282885414.504189</v>
+        <v>1194434394.933113</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1096399676923972</v>
+        <v>0.08870096552858278</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03896511925935616</v>
+        <v>0.03432794739389005</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>641442663.8059046</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2762987041.28228</v>
+        <v>3154029461.352629</v>
       </c>
       <c r="F36" t="n">
-        <v>0.143103640374272</v>
+        <v>0.1723769850193206</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02245649291851941</v>
+        <v>0.01975307123968846</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1381493521.577143</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2370802577.84255</v>
+        <v>2209427203.990285</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09607574202869291</v>
+        <v>0.08014035275016831</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03128610495132991</v>
+        <v>0.03074482544920991</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>104</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1185401367.206896</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1580889063.083392</v>
+        <v>2104447380.175607</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1062873001020745</v>
+        <v>0.07732333363426899</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03439092519673502</v>
+        <v>0.03062343893137875</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>790444569.3809606</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2167428242.734494</v>
+        <v>2160397362.371592</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1870173952960843</v>
+        <v>0.1298480279403612</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0293607965713307</v>
+        <v>0.02175235127265953</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1083714090.496536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1626956154.169723</v>
+        <v>1452806427.128272</v>
       </c>
       <c r="F40" t="n">
-        <v>0.14997576041621</v>
+        <v>0.1391922121738422</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05326004776843872</v>
+        <v>0.04427508166471771</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>813478011.5181621</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1768119835.098939</v>
+        <v>2330448395.404876</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1656389225424303</v>
+        <v>0.1119527509455278</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04491700953621357</v>
+        <v>0.0293180533193884</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>100</v>
-      </c>
-      <c r="J41" t="n">
-        <v>884060014.5295135</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3756723488.112589</v>
+        <v>2663524128.690684</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08106438203844053</v>
+        <v>0.1136067866824389</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04562627364749658</v>
+        <v>0.03458689521425387</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>129</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1878361756.600904</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2495124883.718002</v>
+        <v>3007402419.089185</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1770013064280471</v>
+        <v>0.1398690552930322</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02016568791581767</v>
+        <v>0.02267514677368444</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>137</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1247562491.035285</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2037597274.275963</v>
+        <v>2028391722.80736</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0894809013526399</v>
+        <v>0.09847617989401015</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02872077614585071</v>
+        <v>0.03442134812548002</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1018798750.979943</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2415367968.668779</v>
+        <v>2399475735.014202</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1607641931111411</v>
+        <v>0.1211499581114197</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03623666556155919</v>
+        <v>0.0414602085782452</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1207684017.083827</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3570333958.833382</v>
+        <v>5512298519.499027</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1292400013527263</v>
+        <v>0.1607443858983658</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05093128687938633</v>
+        <v>0.04622356161534016</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>140</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1785166924.373212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4879580659.081762</v>
+        <v>3862128493.660961</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1978194003434189</v>
+        <v>0.1535847222224775</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04771034770942165</v>
+        <v>0.0496769121647723</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>106</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2439790378.570418</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3999248803.902473</v>
+        <v>4342477302.341425</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09050400162867815</v>
+        <v>0.09684321605514987</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02559453913632681</v>
+        <v>0.03039421504822135</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>130</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1999624436.37955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1376556762.817786</v>
+        <v>1910270267.970781</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1630168802888568</v>
+        <v>0.1481344696472305</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04167586082310309</v>
+        <v>0.02777062149292148</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>688278432.639266</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2707120009.474461</v>
+        <v>2941371778.89075</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1662991884493795</v>
+        <v>0.1504959443156809</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04552606554140701</v>
+        <v>0.04644943969891069</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>134</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1353560085.437557</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>997758748.9705864</v>
+        <v>1008834674.118788</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1653669980005292</v>
+        <v>0.1839789443233562</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03625436964288572</v>
+        <v>0.03822065600945854</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>498879458.8308102</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4275716605.033444</v>
+        <v>4814102464.552434</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1287981493812365</v>
+        <v>0.09019034527296996</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05826289562360019</v>
+        <v>0.05793375503711948</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>162</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2137858342.782264</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2518332936.39228</v>
+        <v>3790557905.684318</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1682039422869407</v>
+        <v>0.1663342036634827</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02486132732887704</v>
+        <v>0.03399313395828701</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>112</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1259166533.922077</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4370099639.799781</v>
+        <v>3346387865.004852</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1472503712918433</v>
+        <v>0.1608894245883201</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05129205379751215</v>
+        <v>0.04554181492592232</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>129</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2185049913.057221</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3432513941.322566</v>
+        <v>3936740866.279572</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1839873857161979</v>
+        <v>0.1739481487832388</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02510010500520638</v>
+        <v>0.02014903408904671</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1716256920.539663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1652462203.054311</v>
+        <v>1420806439.107776</v>
       </c>
       <c r="F56" t="n">
-        <v>0.122687354015303</v>
+        <v>0.1455333814694528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04330043702074888</v>
+        <v>0.04459904056673066</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>826231121.2180967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3694080181.635921</v>
+        <v>2952024473.32485</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1123296539897811</v>
+        <v>0.1773161133129125</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01848075630808524</v>
+        <v>0.02046685127955735</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>125</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1847040153.512901</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1565840291.184551</v>
+        <v>1301307001.491596</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1275007242649737</v>
+        <v>0.1681504293486467</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03633192691268519</v>
+        <v>0.0258935120448543</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>782920170.7257497</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4236503044.239468</v>
+        <v>3992029738.473478</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09644817629762553</v>
+        <v>0.1121659913193036</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04729589377033765</v>
+        <v>0.03699150796134602</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2118251486.678201</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3573376372.157388</v>
+        <v>2424751096.707865</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1658806843825518</v>
+        <v>0.1763028122258217</v>
       </c>
       <c r="G60" t="n">
-        <v>0.024578641301731</v>
+        <v>0.03315326016598581</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1786688316.586458</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2872385269.572708</v>
+        <v>3153165535.347596</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1263902111246705</v>
+        <v>0.1108951170619391</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03292321939260517</v>
+        <v>0.02334656901240196</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>135</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1436192627.297999</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2061153064.104324</v>
+        <v>1474517505.55747</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1351471645671132</v>
+        <v>0.1270326565199464</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03115082042412112</v>
+        <v>0.04016015554232227</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1030576599.326778</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4161056491.947812</v>
+        <v>5570968745.577777</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07412137382208933</v>
+        <v>0.07612500527593559</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03271038182082089</v>
+        <v>0.04600471152877381</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>111</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2080528301.173747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4031451770.877676</v>
+        <v>3524517779.503345</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1897698543276473</v>
+        <v>0.1623358645269425</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02638145591276255</v>
+        <v>0.02823783320293499</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>122</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2015725923.524943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4123768320.175228</v>
+        <v>4247053484.596107</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1327105128160053</v>
+        <v>0.1377700358153879</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02943293153720753</v>
+        <v>0.02714341485524169</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>141</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2061884171.308496</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4650959427.657576</v>
+        <v>4453579561.948119</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1084980568945412</v>
+        <v>0.1203487745229266</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03852525050149849</v>
+        <v>0.03709540929208249</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>115</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2325479722.303421</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2878923152.250813</v>
+        <v>2188287672.484401</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1023394847561791</v>
+        <v>0.07983805079762064</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04456057309968975</v>
+        <v>0.04286628756831024</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>126</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1439461604.657731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3985120277.337502</v>
+        <v>5981461154.599629</v>
       </c>
       <c r="F68" t="n">
-        <v>0.150913641774591</v>
+        <v>0.1378956550324329</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04279294800500481</v>
+        <v>0.0342815379219585</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1992560133.563435</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2003159777.939767</v>
+        <v>2036910574.141966</v>
       </c>
       <c r="F69" t="n">
-        <v>0.119270484998954</v>
+        <v>0.1357711251565744</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04695729204895106</v>
+        <v>0.0497108987778078</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1001579894.335211</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3523923755.332724</v>
+        <v>2900381379.236392</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06286985032273328</v>
+        <v>0.09649704886186586</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04745297489234949</v>
+        <v>0.04701110188544507</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>112</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1761961888.745149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4570389409.638562</v>
+        <v>5344866085.086069</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1290635443165301</v>
+        <v>0.1747044493953566</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02605506696763443</v>
+        <v>0.02449711153697963</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>143</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2285194778.501893</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1430617711.598738</v>
+        <v>1401941712.057513</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1042094648933847</v>
+        <v>0.08610401328218628</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04509600064954475</v>
+        <v>0.03996992977874902</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>715308893.9951843</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3233914592.637509</v>
+        <v>2942423387.673292</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08163518759136669</v>
+        <v>0.1114886422977202</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04962663471921542</v>
+        <v>0.04023907765637835</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>149</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1616957270.888779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2653925408.533802</v>
+        <v>2575693467.720411</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1488717932552522</v>
+        <v>0.1776594625939169</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02611345588668786</v>
+        <v>0.02380454134573344</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>134</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1326962799.596112</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2287144735.415963</v>
+        <v>1641620176.839573</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1547268293444108</v>
+        <v>0.1061748103528335</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03422784478563516</v>
+        <v>0.02775396216773427</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1143572304.957595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4212489339.431828</v>
+        <v>3494595908.482615</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1103276196527581</v>
+        <v>0.09793168739883407</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02927957277875745</v>
+        <v>0.03420648034103797</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2106244663.329877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1945457834.462994</v>
+        <v>1846039176.225116</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1711947697006863</v>
+        <v>0.1743716325585261</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02552489117816565</v>
+        <v>0.02953026629746598</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>972728970.7465398</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4728053116.136398</v>
+        <v>4371653042.330077</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1364044252965313</v>
+        <v>0.08330065975128406</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04747545587005957</v>
+        <v>0.03917587485430109</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>137</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2364026471.715772</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1619367362.982702</v>
+        <v>1798513407.335618</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1261814146353344</v>
+        <v>0.1744328937191</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0390387543237722</v>
+        <v>0.03158461200082986</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>809683736.6109478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4531247728.122</v>
+        <v>4891887900.461406</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09717659687969557</v>
+        <v>0.1058416628958016</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02513880260722134</v>
+        <v>0.02857117568482314</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2265623889.966902</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5186392807.307817</v>
+        <v>4022214837.714375</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1186657745137845</v>
+        <v>0.1213167058495512</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02002257487196693</v>
+        <v>0.03094964854454705</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2593196410.909425</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4936185235.18203</v>
+        <v>5359824341.506419</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1959284010938621</v>
+        <v>0.189803324061158</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0280006903769607</v>
+        <v>0.01879844751267725</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>138</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2468092605.124247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2466468918.450767</v>
+        <v>1660878486.109124</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1571865801487233</v>
+        <v>0.1028147940713466</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03398766455970251</v>
+        <v>0.02978339396486882</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1233234502.609942</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2464032167.617084</v>
+        <v>2458180644.707385</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09794255532164355</v>
+        <v>0.09667097670774916</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0474330819914203</v>
+        <v>0.03381194448177059</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1232016020.8592</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2812208497.210384</v>
+        <v>3089523591.723002</v>
       </c>
       <c r="F85" t="n">
-        <v>0.164427639357087</v>
+        <v>0.1654515402441476</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03527752119409724</v>
+        <v>0.05351599521620747</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>148</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1406104288.018289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1813973221.100518</v>
+        <v>2055694644.90917</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1166512194139527</v>
+        <v>0.1335412287450302</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02284948868520642</v>
+        <v>0.0166971140624638</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>52</v>
-      </c>
-      <c r="J86" t="n">
-        <v>906986612.3263347</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1034880072.335175</v>
+        <v>1097363612.924886</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1308067478619331</v>
+        <v>0.1634550371160904</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03387232940875266</v>
+        <v>0.03790122639858397</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>517440049.4657355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3413476454.533444</v>
+        <v>2943859586.960274</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1778327476381169</v>
+        <v>0.1221620611208401</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03453781667462971</v>
+        <v>0.03006526380288437</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>155</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1706738298.591901</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2274620012.927555</v>
+        <v>3506285742.42052</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1592092810901032</v>
+        <v>0.1483333545652874</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03277979025851122</v>
+        <v>0.04086579273305337</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>132</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1137310097.752915</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1923247726.150494</v>
+        <v>1411678965.207163</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1337877223832756</v>
+        <v>0.1375456497147899</v>
       </c>
       <c r="G90" t="n">
-        <v>0.050190074136078</v>
+        <v>0.05006910014019453</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>961623919.3198762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1967153158.524678</v>
+        <v>1338953119.613053</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1868277855128472</v>
+        <v>0.1450059276193105</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05370108047624533</v>
+        <v>0.05225301981930908</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>983576555.9453988</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2973382591.151575</v>
+        <v>2100125879.375345</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1060866545316924</v>
+        <v>0.09166681571576349</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03967088980757855</v>
+        <v>0.02938452786155509</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>110</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1486691315.31272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3406816453.431189</v>
+        <v>3709247361.205974</v>
       </c>
       <c r="F93" t="n">
-        <v>0.137851207901556</v>
+        <v>0.08745546936755004</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04510167358221447</v>
+        <v>0.03617497206864349</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1703408265.721362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1959356615.756652</v>
+        <v>1906583760.376616</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1234984684023655</v>
+        <v>0.129439777185651</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03396713588212623</v>
+        <v>0.03084682170050205</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>979678301.010926</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2981871731.615051</v>
+        <v>2500580543.928196</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0844204221232239</v>
+        <v>0.09741109107708026</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03404329441938255</v>
+        <v>0.04664355337652139</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1490935866.853028</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1656009990.329865</v>
+        <v>1581613267.298554</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1090080343285846</v>
+        <v>0.1323277784576222</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04617736360173814</v>
+        <v>0.0384769188663026</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>828005018.8924922</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3840350213.250489</v>
+        <v>3294162374.591203</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1439742162695914</v>
+        <v>0.1239181774668857</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02204328511904867</v>
+        <v>0.02474163543803863</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>126</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1920175150.172155</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3468852638.6535</v>
+        <v>3611348173.694343</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1243119098612561</v>
+        <v>0.1209105289970874</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02400629681652392</v>
+        <v>0.02147599523133744</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>109</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1734426335.834982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2225932247.410986</v>
+        <v>2073113898.672745</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09490163281359747</v>
+        <v>0.09447389683841283</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02773430107711689</v>
+        <v>0.03538647477401512</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>124</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1112966053.572614</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3547187939.966669</v>
+        <v>3735335911.781722</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1730374660373833</v>
+        <v>0.1121671322051289</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02639954544282764</v>
+        <v>0.0183007736178526</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>123</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1773594004.522476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2462254396.580775</v>
+        <v>2779862608.566852</v>
       </c>
       <c r="F101" t="n">
-        <v>0.184170726724307</v>
+        <v>0.2144756192296801</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04794129089706993</v>
+        <v>0.05231857275452374</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>160</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1231127216.270846</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_394.xlsx
+++ b/output/fit_clients/fit_round_394.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1606870532.948161</v>
+        <v>1710845924.312408</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1108277205425805</v>
+        <v>0.104668465004152</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04263494380878179</v>
+        <v>0.03514273905602616</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2111717537.543781</v>
+        <v>2619787709.206347</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1239248026243914</v>
+        <v>0.1653502448985278</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04119035298736383</v>
+        <v>0.03168966651290951</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4296658116.035564</v>
+        <v>4743837855.589525</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1090745174400496</v>
+        <v>0.1182733021154505</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03447792436612358</v>
+        <v>0.03279389585902624</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3602899533.132051</v>
+        <v>2790698539.351023</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07980583241991344</v>
+        <v>0.1054165899524552</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04261368833931387</v>
+        <v>0.03490394510743405</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1972294718.004003</v>
+        <v>2323438254.656725</v>
       </c>
       <c r="F6" t="n">
-        <v>0.127350240334432</v>
+        <v>0.1405335237679692</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04211665167667607</v>
+        <v>0.04585248300690922</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2127741982.175503</v>
+        <v>2542406518.92468</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09611104697727307</v>
+        <v>0.08070333577145186</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03021953825627637</v>
+        <v>0.03843721683682735</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2756596959.869734</v>
+        <v>3185099144.000373</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1601331347246765</v>
+        <v>0.1487274581229655</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02330334018709161</v>
+        <v>0.0236390742273183</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2193582292.145005</v>
+        <v>2175502636.413618</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1652604773683261</v>
+        <v>0.1523639623952956</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02903225093791955</v>
+        <v>0.03662595973098212</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3964622892.750864</v>
+        <v>5127724616.946252</v>
       </c>
       <c r="F10" t="n">
-        <v>0.19514399715693</v>
+        <v>0.131213701635958</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04728345294903</v>
+        <v>0.03777528179714187</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3650867914.269326</v>
+        <v>4144513573.152967</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1856779038168234</v>
+        <v>0.1717611492618741</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04066791963582925</v>
+        <v>0.03969200994396033</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3261693006.494056</v>
+        <v>3266021572.7172</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1215097355431547</v>
+        <v>0.1652602423152377</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03944692720336623</v>
+        <v>0.04454363175235245</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4238664335.318161</v>
+        <v>5308391443.143453</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07008275399705104</v>
+        <v>0.07426723894755045</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02175628197490401</v>
+        <v>0.0243072881798416</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2959111290.274931</v>
+        <v>3732309728.047714</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1664366409553856</v>
+        <v>0.136831757405403</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02913729626219373</v>
+        <v>0.04200529531917462</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1486031773.808243</v>
+        <v>1410477321.036911</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1044693876043493</v>
+        <v>0.08865397115576394</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04821978706595135</v>
+        <v>0.04646845405896561</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1869560344.500788</v>
+        <v>2201521026.656369</v>
       </c>
       <c r="F16" t="n">
-        <v>0.103274663604311</v>
+        <v>0.1127353538408173</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04665665311570419</v>
+        <v>0.03662241555446933</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3835399935.56999</v>
+        <v>4096261103.806443</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1552613037884306</v>
+        <v>0.1281162354523042</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0396704320557533</v>
+        <v>0.04695229388560055</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2415296685.672663</v>
+        <v>2587282450.387522</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1357663224487878</v>
+        <v>0.1358318422572285</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02474522921247288</v>
+        <v>0.03244082655520315</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1297071329.387777</v>
+        <v>1309784589.432005</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1608603990187027</v>
+        <v>0.1277587359909061</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02211543182076382</v>
+        <v>0.02464675532926174</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1981119010.495266</v>
+        <v>2598950276.245083</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1093663577429834</v>
+        <v>0.1570318006866992</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02093015841414736</v>
+        <v>0.02380738605143589</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2497729474.997792</v>
+        <v>1907634731.904558</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08795943367242515</v>
+        <v>0.07679293772501652</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03928650831022081</v>
+        <v>0.02977545631772614</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3011789947.541386</v>
+        <v>3122983878.146514</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1056145879960454</v>
+        <v>0.1085092219053105</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04258927422982763</v>
+        <v>0.03582276877654036</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1297232594.274851</v>
+        <v>1340693919.484445</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1797106299323395</v>
+        <v>0.1270391347314203</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04109854390857132</v>
+        <v>0.04106934011103586</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2536625629.030017</v>
+        <v>2529569199.106476</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1003466901044749</v>
+        <v>0.1215668102496778</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02794942918959634</v>
+        <v>0.02281224616042233</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1299392775.754194</v>
+        <v>1470337862.698335</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08428337951610142</v>
+        <v>0.1223407192087642</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02805712853388161</v>
+        <v>0.02683462960946309</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1235889197.797345</v>
+        <v>1006291722.24342</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1033134906603722</v>
+        <v>0.0793904370584133</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03271015789883094</v>
+        <v>0.03234420554197895</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3625430907.734745</v>
+        <v>4418150837.283409</v>
       </c>
       <c r="F27" t="n">
-        <v>0.154561983776284</v>
+        <v>0.1527504871286238</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01847705710030058</v>
+        <v>0.0232886630379651</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3704939869.566555</v>
+        <v>2859102397.487063</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09532797008228938</v>
+        <v>0.1392728494779439</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03082826629963792</v>
+        <v>0.03205014154425647</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4373985552.879976</v>
+        <v>5170883156.558827</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1026366771636272</v>
+        <v>0.1467407519982675</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03545140226694332</v>
+        <v>0.04208215488519463</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2293084789.263435</v>
+        <v>1998068449.24891</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1147756784808037</v>
+        <v>0.08906030084491802</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03232571358610879</v>
+        <v>0.02666141843299959</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1369022585.294963</v>
+        <v>917399457.6585735</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08212253936376313</v>
+        <v>0.09055666891596678</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04399989555973858</v>
+        <v>0.04471975422401089</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1452385029.607466</v>
+        <v>1319421079.966786</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08245975867193663</v>
+        <v>0.09342942056444489</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02642212766229301</v>
+        <v>0.02721846046606741</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2407849745.847858</v>
+        <v>2281801916.066177</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1903744385115136</v>
+        <v>0.1434025806185462</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05605705074107808</v>
+        <v>0.0463707790269686</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1036270320.286702</v>
+        <v>1433545155.098446</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07548219565517009</v>
+        <v>0.1124278598749082</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01907260628306571</v>
+        <v>0.01910834313700848</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1194434394.933113</v>
+        <v>896201061.7071279</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08870096552858278</v>
+        <v>0.08546260593597947</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03432794739389005</v>
+        <v>0.03476672724577839</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3154029461.352629</v>
+        <v>2376102585.835804</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1723769850193206</v>
+        <v>0.1727393086108052</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01975307123968846</v>
+        <v>0.02882531481878889</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2209427203.990285</v>
+        <v>2385296707.68011</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08014035275016831</v>
+        <v>0.08259413027197787</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03074482544920991</v>
+        <v>0.04031281486811594</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2104447380.175607</v>
+        <v>1455107117.23005</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07732333363426899</v>
+        <v>0.08923816683189637</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03062343893137875</v>
+        <v>0.03561228580729891</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2160397362.371592</v>
+        <v>2116127524.84054</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1298480279403612</v>
+        <v>0.1713510464026523</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02175235127265953</v>
+        <v>0.02324028610333343</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1452806427.128272</v>
+        <v>1402146428.40755</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1391922121738422</v>
+        <v>0.1483090328342044</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04427508166471771</v>
+        <v>0.0545991913293298</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2330448395.404876</v>
+        <v>2144741410.711832</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1119527509455278</v>
+        <v>0.1038824619284957</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0293180533193884</v>
+        <v>0.04680284690250968</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2663524128.690684</v>
+        <v>4272991708.639122</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1136067866824389</v>
+        <v>0.1114518212892597</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03458689521425387</v>
+        <v>0.0307679026605245</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3007402419.089185</v>
+        <v>2085316561.117403</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1398690552930322</v>
+        <v>0.1820510686952743</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02267514677368444</v>
+        <v>0.02156940771545708</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2028391722.80736</v>
+        <v>1594233445.571059</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09847617989401015</v>
+        <v>0.1009934395863419</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03442134812548002</v>
+        <v>0.02894865641297622</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2399475735.014202</v>
+        <v>2460388582.589592</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1211499581114197</v>
+        <v>0.1751875299640263</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0414602085782452</v>
+        <v>0.04722566281340879</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5512298519.499027</v>
+        <v>4466377117.438097</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1607443858983658</v>
+        <v>0.1576531349524116</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04622356161534016</v>
+        <v>0.04713089016474128</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3862128493.660961</v>
+        <v>4600449958.354555</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1535847222224775</v>
+        <v>0.152121336569931</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0496769121647723</v>
+        <v>0.04091139028053632</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4342477302.341425</v>
+        <v>4646291231.101882</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09684321605514987</v>
+        <v>0.1049027026004875</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03039421504822135</v>
+        <v>0.0337631067633969</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1910270267.970781</v>
+        <v>1222238571.567658</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1481344696472305</v>
+        <v>0.1627029045089488</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02777062149292148</v>
+        <v>0.03845226995094172</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2941371778.89075</v>
+        <v>3061063396.851421</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1504959443156809</v>
+        <v>0.1646269988303394</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04644943969891069</v>
+        <v>0.05235231504477385</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1008834674.118788</v>
+        <v>1436761565.584598</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1839789443233562</v>
+        <v>0.1396418015847955</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03822065600945854</v>
+        <v>0.05143577907083427</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4814102464.552434</v>
+        <v>3307403233.084895</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09019034527296996</v>
+        <v>0.1057753178275226</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05793375503711948</v>
+        <v>0.0485264768433151</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3790557905.684318</v>
+        <v>2641947217.325464</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1663342036634827</v>
+        <v>0.13548690957815</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03399313395828701</v>
+        <v>0.02154110130654092</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3346387865.004852</v>
+        <v>3609091960.922532</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1608894245883201</v>
+        <v>0.1523284240301779</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04554181492592232</v>
+        <v>0.04371100987357118</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3936740866.279572</v>
+        <v>4533884093.946586</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1739481487832388</v>
+        <v>0.2140048883084833</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02014903408904671</v>
+        <v>0.02967265972329363</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1420806439.107776</v>
+        <v>1657277738.826232</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1455333814694528</v>
+        <v>0.1202124524613212</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04459904056673066</v>
+        <v>0.03506069266417351</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2952024473.32485</v>
+        <v>4440679058.214711</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1773161133129125</v>
+        <v>0.1723198927086599</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02046685127955735</v>
+        <v>0.0251593069285959</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1301307001.491596</v>
+        <v>1183647340.081622</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1681504293486467</v>
+        <v>0.1730232999872576</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0258935120448543</v>
+        <v>0.03199433241456139</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3992029738.473478</v>
+        <v>3970967371.876019</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1121659913193036</v>
+        <v>0.108286690216378</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03699150796134602</v>
+        <v>0.0501647130218399</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2424751096.707865</v>
+        <v>2432594274.506105</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1763028122258217</v>
+        <v>0.1312193295658079</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03315326016598581</v>
+        <v>0.02804321897124608</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3153165535.347596</v>
+        <v>3363563496.073905</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1108951170619391</v>
+        <v>0.1417986779795736</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02334656901240196</v>
+        <v>0.02324055582524888</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1474517505.55747</v>
+        <v>2076973884.67976</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1270326565199464</v>
+        <v>0.1900267280338374</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04016015554232227</v>
+        <v>0.04743253531132809</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5570968745.577777</v>
+        <v>3527585328.325739</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07612500527593559</v>
+        <v>0.07008340108954483</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04600471152877381</v>
+        <v>0.03929899670259651</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3524517779.503345</v>
+        <v>5550992231.613471</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1623358645269425</v>
+        <v>0.15282666495293</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02823783320293499</v>
+        <v>0.02603542846774289</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4247053484.596107</v>
+        <v>5726921673.493368</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1377700358153879</v>
+        <v>0.1092925976568232</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02714341485524169</v>
+        <v>0.03196683132385388</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4453579561.948119</v>
+        <v>4210398765.923646</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1203487745229266</v>
+        <v>0.1282503301130652</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03709540929208249</v>
+        <v>0.04746483056894809</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2188287672.484401</v>
+        <v>2145332214.490662</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07983805079762064</v>
+        <v>0.08661890688727253</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04286628756831024</v>
+        <v>0.03534417593831252</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5981461154.599629</v>
+        <v>4494392348.964511</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1378956550324329</v>
+        <v>0.139116963043431</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0342815379219585</v>
+        <v>0.03746247281193791</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2036910574.141966</v>
+        <v>1578917080.930781</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1357711251565744</v>
+        <v>0.1542328233040065</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0497108987778078</v>
+        <v>0.04536232634987834</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2900381379.236392</v>
+        <v>2291556957.927149</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09649704886186586</v>
+        <v>0.06993043281058194</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04701110188544507</v>
+        <v>0.04960643756736838</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5344866085.086069</v>
+        <v>4774468615.271993</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1747044493953566</v>
+        <v>0.1423848953365351</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02449711153697963</v>
+        <v>0.02118091315403445</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1401941712.057513</v>
+        <v>1452802642.638891</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08610401328218628</v>
+        <v>0.09493886906623528</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03996992977874902</v>
+        <v>0.05087503543608861</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2942423387.673292</v>
+        <v>2572124615.97061</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1114886422977202</v>
+        <v>0.09972235120743558</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04023907765637835</v>
+        <v>0.05137164716197513</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2575693467.720411</v>
+        <v>3658535823.256891</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1776594625939169</v>
+        <v>0.1181922619111827</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02380454134573344</v>
+        <v>0.03176939327477548</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1641620176.839573</v>
+        <v>1736065669.191997</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1061748103528335</v>
+        <v>0.1202181806775002</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02775396216773427</v>
+        <v>0.02624471709699888</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3494595908.482615</v>
+        <v>4485900845.266602</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09793168739883407</v>
+        <v>0.1139846466705607</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03420648034103797</v>
+        <v>0.02754203556469558</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1846039176.225116</v>
+        <v>1664127971.488618</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1743716325585261</v>
+        <v>0.1347456367464143</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02953026629746598</v>
+        <v>0.01917801252371854</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4371653042.330077</v>
+        <v>4684875478.302027</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08330065975128406</v>
+        <v>0.1270159890087714</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03917587485430109</v>
+        <v>0.05580473931926265</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1798513407.335618</v>
+        <v>1534595078.610387</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1744328937191</v>
+        <v>0.1580242236786422</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03158461200082986</v>
+        <v>0.03559941297714879</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4891887900.461406</v>
+        <v>5216994336.440095</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1058416628958016</v>
+        <v>0.09539883382049248</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02857117568482314</v>
+        <v>0.02731222023664766</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4022214837.714375</v>
+        <v>3679948180.645989</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1213167058495512</v>
+        <v>0.09606160135932618</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03094964854454705</v>
+        <v>0.02967325045112137</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5359824341.506419</v>
+        <v>4041856961.462545</v>
       </c>
       <c r="F82" t="n">
-        <v>0.189803324061158</v>
+        <v>0.2094237177192618</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01879844751267725</v>
+        <v>0.02761545382139194</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1660878486.109124</v>
+        <v>1760542856.983056</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1028147940713466</v>
+        <v>0.1513355654089321</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02978339396486882</v>
+        <v>0.03450489713600533</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2458180644.707385</v>
+        <v>1692908223.542706</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09667097670774916</v>
+        <v>0.1094264402878153</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03381194448177059</v>
+        <v>0.04606396484483782</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3089523591.723002</v>
+        <v>2928367808.283168</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1654515402441476</v>
+        <v>0.1290086100486415</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05351599521620747</v>
+        <v>0.04662791234973884</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2055694644.90917</v>
+        <v>2155373464.350485</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1335412287450302</v>
+        <v>0.1182906373192463</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0166971140624638</v>
+        <v>0.0250547389800175</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1097363612.924886</v>
+        <v>956621914.0089421</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1634550371160904</v>
+        <v>0.1804260442225498</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03790122639858397</v>
+        <v>0.02898642835890732</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2943859586.960274</v>
+        <v>3117947192.843708</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1221620611208401</v>
+        <v>0.1649771354382501</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03006526380288437</v>
+        <v>0.03190698278671621</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3506285742.42052</v>
+        <v>2137477453.963066</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1483333545652874</v>
+        <v>0.1250944916770029</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04086579273305337</v>
+        <v>0.0353365858985443</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1411678965.207163</v>
+        <v>1899087101.791042</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1375456497147899</v>
+        <v>0.09831080456987454</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05006910014019453</v>
+        <v>0.05185157361735283</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1338953119.613053</v>
+        <v>1825463146.158386</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1450059276193105</v>
+        <v>0.1433935914202235</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05225301981930908</v>
+        <v>0.05983622044913347</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2100125879.375345</v>
+        <v>2577429461.168363</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09166681571576349</v>
+        <v>0.0852245472686806</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02938452786155509</v>
+        <v>0.04122998767895623</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3709247361.205974</v>
+        <v>4616491490.986366</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08745546936755004</v>
+        <v>0.1270151783510569</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03617497206864349</v>
+        <v>0.04968881277583378</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1906583760.376616</v>
+        <v>1519793753.718603</v>
       </c>
       <c r="F94" t="n">
-        <v>0.129439777185651</v>
+        <v>0.1578265360821109</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03084682170050205</v>
+        <v>0.04188260697589727</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2500580543.928196</v>
+        <v>3209859591.616342</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09741109107708026</v>
+        <v>0.1027343049289556</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04664355337652139</v>
+        <v>0.03851250010030859</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1581613267.298554</v>
+        <v>1997236521.49948</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1323277784576222</v>
+        <v>0.118972216254148</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0384769188663026</v>
+        <v>0.03397682071170437</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3294162374.591203</v>
+        <v>4814985371.960795</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1239181774668857</v>
+        <v>0.1544371643167667</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02474163543803863</v>
+        <v>0.02071723086535459</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3611348173.694343</v>
+        <v>3074621490.957564</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1209105289970874</v>
+        <v>0.1162533243098372</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02147599523133744</v>
+        <v>0.02094596947168704</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2073113898.672745</v>
+        <v>2926542042.614992</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09447389683841283</v>
+        <v>0.09667429396544865</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03538647477401512</v>
+        <v>0.02694193848744808</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3735335911.781722</v>
+        <v>3412836891.148448</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1121671322051289</v>
+        <v>0.1376269691847548</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0183007736178526</v>
+        <v>0.02126988702594175</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2779862608.566852</v>
+        <v>2308781150.888188</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2144756192296801</v>
+        <v>0.1809188744450619</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05231857275452374</v>
+        <v>0.04249432035130073</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_394.xlsx
+++ b/output/fit_clients/fit_round_394.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1710845924.312408</v>
+        <v>1928369542.744499</v>
       </c>
       <c r="F2" t="n">
-        <v>0.104668465004152</v>
+        <v>0.08840732148164393</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03514273905602616</v>
+        <v>0.03141973349787993</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2619787709.206347</v>
+        <v>2095234307.578764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1653502448985278</v>
+        <v>0.1314495004481935</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03168966651290951</v>
+        <v>0.04558719041017683</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4743837855.589525</v>
+        <v>4947831358.280197</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1182733021154505</v>
+        <v>0.1301584348351793</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03279389585902624</v>
+        <v>0.03219859494825817</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>200</v>
+      </c>
+      <c r="J4" t="n">
+        <v>394</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2790698539.351023</v>
+        <v>3826395799.591187</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1054165899524552</v>
+        <v>0.08232600253407694</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03490394510743405</v>
+        <v>0.03684382917405225</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>160</v>
+      </c>
+      <c r="J5" t="n">
+        <v>394</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2323438254.656725</v>
+        <v>2472769918.957398</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1405335237679692</v>
+        <v>0.1022594136752961</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04585248300690922</v>
+        <v>0.03761140164165276</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2542406518.92468</v>
+        <v>2844408509.936986</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08070333577145186</v>
+        <v>0.09811581150224068</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03843721683682735</v>
+        <v>0.04479688945401693</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +711,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3185099144.000373</v>
+        <v>3694198551.050107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1487274581229655</v>
+        <v>0.1795676499067888</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0236390742273183</v>
+        <v>0.02892385658892953</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>107</v>
+      </c>
+      <c r="J8" t="n">
+        <v>394</v>
+      </c>
+      <c r="K8" t="n">
+        <v>60.84136598501266</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2175502636.413618</v>
+        <v>1552011832.192567</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1523639623952956</v>
+        <v>0.1746323422944343</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03662595973098212</v>
+        <v>0.02657689236491429</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5127724616.946252</v>
+        <v>4571929288.507571</v>
       </c>
       <c r="F10" t="n">
-        <v>0.131213701635958</v>
+        <v>0.1649360606689871</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03777528179714187</v>
+        <v>0.0346745282773639</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>321</v>
+      </c>
+      <c r="J10" t="n">
+        <v>393</v>
+      </c>
+      <c r="K10" t="n">
+        <v>45.64754167797143</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4144513573.152967</v>
+        <v>2820880619.378593</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1717611492618741</v>
+        <v>0.1517462371888007</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03969200994396033</v>
+        <v>0.03830784037583445</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>165</v>
+      </c>
+      <c r="J11" t="n">
+        <v>392</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3266021572.7172</v>
+        <v>3229002812.444836</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1652602423152377</v>
+        <v>0.1514411222418122</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04454363175235245</v>
+        <v>0.0378843902325691</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5308391443.143453</v>
+        <v>4177577645.412154</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07426723894755045</v>
+        <v>0.06849854079534451</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0243072881798416</v>
+        <v>0.02016419146508727</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>205</v>
+      </c>
+      <c r="J13" t="n">
+        <v>394</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3732309728.047714</v>
+        <v>2936530788.070087</v>
       </c>
       <c r="F14" t="n">
-        <v>0.136831757405403</v>
+        <v>0.1833094904691248</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04200529531917462</v>
+        <v>0.03508408929398354</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1410477321.036911</v>
+        <v>1541726628.967193</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08865397115576394</v>
+        <v>0.09493644437695586</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04646845405896561</v>
+        <v>0.03158301901410673</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2201521026.656369</v>
+        <v>1968755263.705875</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1127353538408173</v>
+        <v>0.09992570642009499</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03662241555446933</v>
+        <v>0.03168726486541216</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4096261103.806443</v>
+        <v>3998624287.309124</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1281162354523042</v>
+        <v>0.1725131445417147</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04695229388560055</v>
+        <v>0.03616723355971761</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>190</v>
+      </c>
+      <c r="J17" t="n">
+        <v>393</v>
+      </c>
+      <c r="K17" t="n">
+        <v>47.96635487047987</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2587282450.387522</v>
+        <v>3758532586.0402</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1358318422572285</v>
+        <v>0.1388754409896623</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03244082655520315</v>
+        <v>0.02573181099106204</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>95</v>
+      </c>
+      <c r="J18" t="n">
+        <v>394</v>
+      </c>
+      <c r="K18" t="n">
+        <v>73.21007243978619</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1309784589.432005</v>
+        <v>1318173659.544726</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1277587359909061</v>
+        <v>0.1836947390032843</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02464675532926174</v>
+        <v>0.02006403828963163</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2598950276.245083</v>
+        <v>2019236325.067345</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1570318006866992</v>
+        <v>0.1111340806550886</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02380738605143589</v>
+        <v>0.02925961868128381</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1907634731.904558</v>
+        <v>2309696744.593462</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07679293772501652</v>
+        <v>0.07022203661704239</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02977545631772614</v>
+        <v>0.03514524723559732</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3122983878.146514</v>
+        <v>2862797031.044534</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1085092219053105</v>
+        <v>0.08949819190300295</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03582276877654036</v>
+        <v>0.05041667707295637</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>108</v>
+      </c>
+      <c r="J22" t="n">
+        <v>393</v>
+      </c>
+      <c r="K22" t="n">
+        <v>38.6161055066224</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1340693919.484445</v>
+        <v>958876826.6524539</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1270391347314203</v>
+        <v>0.1167013404204732</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04106934011103586</v>
+        <v>0.04621203974058456</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2529569199.106476</v>
+        <v>3658859110.376871</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1215668102496778</v>
+        <v>0.1433866026975183</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02281224616042233</v>
+        <v>0.02728441566231445</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>122</v>
+      </c>
+      <c r="J24" t="n">
+        <v>394</v>
+      </c>
+      <c r="K24" t="n">
+        <v>52.10218136175295</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1470337862.698335</v>
+        <v>1357145519.324915</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1223407192087642</v>
+        <v>0.1125917819495771</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02683462960946309</v>
+        <v>0.0266651834029407</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1006291722.24342</v>
+        <v>1355112543.731193</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0793904370584133</v>
+        <v>0.0931597652199835</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03234420554197895</v>
+        <v>0.02936087490102504</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4418150837.283409</v>
+        <v>4215618287.737597</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1527504871286238</v>
+        <v>0.1305064243415895</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0232886630379651</v>
+        <v>0.02249716996445186</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>164</v>
+      </c>
+      <c r="J27" t="n">
+        <v>394</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1417,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2859102397.487063</v>
+        <v>3000954992.072647</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1392728494779439</v>
+        <v>0.09849182401489423</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03205014154425647</v>
+        <v>0.03589484312796784</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>95</v>
+      </c>
+      <c r="J28" t="n">
+        <v>393</v>
+      </c>
+      <c r="K28" t="n">
+        <v>42.28393509828781</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5170883156.558827</v>
+        <v>4968445811.543413</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1467407519982675</v>
+        <v>0.1363177166210012</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04208215488519463</v>
+        <v>0.02979824394394327</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>336</v>
+      </c>
+      <c r="J29" t="n">
+        <v>393</v>
+      </c>
+      <c r="K29" t="n">
+        <v>46.96736998446087</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1998068449.24891</v>
+        <v>2022708734.834358</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08906030084491802</v>
+        <v>0.09461400835395656</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02666141843299959</v>
+        <v>0.0372416336560227</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>917399457.6585735</v>
+        <v>941494355.5886035</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09055666891596678</v>
+        <v>0.1063994665569513</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04471975422401089</v>
+        <v>0.03206749361007505</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1319421079.966786</v>
+        <v>1301965384.938577</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09342942056444489</v>
+        <v>0.07354433872556412</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02721846046606741</v>
+        <v>0.02745576056446356</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2281801916.066177</v>
+        <v>2482557203.1436</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1434025806185462</v>
+        <v>0.1311879045370066</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0463707790269686</v>
+        <v>0.04608951950607988</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1433545155.098446</v>
+        <v>1410757996.732541</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1124278598749082</v>
+        <v>0.12074755137812</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01910834313700848</v>
+        <v>0.02330404444827747</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>896201061.7071279</v>
+        <v>1272006541.302814</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08546260593597947</v>
+        <v>0.09838114355191989</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03476672724577839</v>
+        <v>0.03427863092838916</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2376102585.835804</v>
+        <v>2031579912.763798</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1727393086108052</v>
+        <v>0.1693270829790436</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02882531481878889</v>
+        <v>0.01811869860819932</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2385296707.68011</v>
+        <v>2481664953.787428</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08259413027197787</v>
+        <v>0.0889536783689821</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04031281486811594</v>
+        <v>0.03610445732827798</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1455107117.23005</v>
+        <v>1403135247.905426</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08923816683189637</v>
+        <v>0.08718748010703389</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03561228580729891</v>
+        <v>0.03994739694206765</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2116127524.84054</v>
+        <v>1558087087.358658</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1713510464026523</v>
+        <v>0.1318290864679332</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02324028610333343</v>
+        <v>0.02256731023067852</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1402146428.40755</v>
+        <v>1541991501.779582</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1483090328342044</v>
+        <v>0.1423921791529179</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0545991913293298</v>
+        <v>0.03980033837008767</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1882,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2144741410.711832</v>
+        <v>1806922102.249267</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1038824619284957</v>
+        <v>0.1631736026979687</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04680284690250968</v>
+        <v>0.03820482981179138</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4272991708.639122</v>
+        <v>2956099604.473557</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1114518212892597</v>
+        <v>0.09661014496684427</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0307679026605245</v>
+        <v>0.03863128519168896</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>171</v>
+      </c>
+      <c r="J42" t="n">
+        <v>392</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2085316561.117403</v>
+        <v>3051911553.11661</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1820510686952743</v>
+        <v>0.14572213441287</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02156940771545708</v>
+        <v>0.01752536817872281</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1594233445.571059</v>
+        <v>2342264387.513361</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1009934395863419</v>
+        <v>0.1002443995408315</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02894865641297622</v>
+        <v>0.02981543593203232</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2460388582.589592</v>
+        <v>1954939024.227597</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1751875299640263</v>
+        <v>0.1379852377436628</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04722566281340879</v>
+        <v>0.05070004606351051</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4466377117.438097</v>
+        <v>4750464251.302729</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1576531349524116</v>
+        <v>0.1754202913164788</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04713089016474128</v>
+        <v>0.05137872286245029</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>236</v>
+      </c>
+      <c r="J46" t="n">
+        <v>394</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4600449958.354555</v>
+        <v>4232662697.861459</v>
       </c>
       <c r="F47" t="n">
-        <v>0.152121336569931</v>
+        <v>0.1300743189693788</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04091139028053632</v>
+        <v>0.0497008105347863</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>176</v>
+      </c>
+      <c r="J47" t="n">
+        <v>394</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4646291231.101882</v>
+        <v>3021852038.741374</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1049027026004875</v>
+        <v>0.0956651769069622</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0337631067633969</v>
+        <v>0.02380051183058691</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>204</v>
+      </c>
+      <c r="J48" t="n">
+        <v>393</v>
+      </c>
+      <c r="K48" t="n">
+        <v>31.35650242986394</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1222238571.567658</v>
+        <v>1651384980.683741</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1627029045089488</v>
+        <v>0.1826552600252696</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03845226995094172</v>
+        <v>0.03135675296369632</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3061063396.851421</v>
+        <v>2593629885.397183</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1646269988303394</v>
+        <v>0.1236915352241808</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05235231504477385</v>
+        <v>0.03730390238633553</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>134</v>
+      </c>
+      <c r="J50" t="n">
+        <v>387</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1436761565.584598</v>
+        <v>1466616623.187021</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1396418015847955</v>
+        <v>0.1573995423080999</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05143577907083427</v>
+        <v>0.04607392083367021</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3307403233.084895</v>
+        <v>4304356874.630956</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1057753178275226</v>
+        <v>0.1084220693356202</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0485264768433151</v>
+        <v>0.06200661442595635</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>230</v>
+      </c>
+      <c r="J52" t="n">
+        <v>393</v>
+      </c>
+      <c r="K52" t="n">
+        <v>48.6498354294221</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2641947217.325464</v>
+        <v>2468742985.697201</v>
       </c>
       <c r="F53" t="n">
-        <v>0.13548690957815</v>
+        <v>0.148168868321565</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02154110130654092</v>
+        <v>0.0237144259887756</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3609091960.922532</v>
+        <v>3735470686.824222</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1523284240301779</v>
+        <v>0.1564878599027361</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04371100987357118</v>
+        <v>0.04932961998655571</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>210</v>
+      </c>
+      <c r="J54" t="n">
+        <v>393</v>
+      </c>
+      <c r="K54" t="n">
+        <v>48.54696373006261</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4533884093.946586</v>
+        <v>3573053972.070122</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2140048883084833</v>
+        <v>0.1455109799270612</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02967265972329363</v>
+        <v>0.02805929401293174</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>190</v>
+      </c>
+      <c r="J55" t="n">
+        <v>389</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1657277738.826232</v>
+        <v>1324690932.787803</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1202124524613212</v>
+        <v>0.1545326723012819</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03506069266417351</v>
+        <v>0.04564770803796295</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4440679058.214711</v>
+        <v>4176755917.35703</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1723198927086599</v>
+        <v>0.1736292790093746</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0251593069285959</v>
+        <v>0.02669611821278772</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>167</v>
+      </c>
+      <c r="J57" t="n">
+        <v>394</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1183647340.081622</v>
+        <v>1632577099.235104</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1730232999872576</v>
+        <v>0.1762856980683293</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03199433241456139</v>
+        <v>0.0321803727889498</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2518,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3970967371.876019</v>
+        <v>5241862890.334446</v>
       </c>
       <c r="F59" t="n">
-        <v>0.108286690216378</v>
+        <v>0.09013763798347041</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0501647130218399</v>
+        <v>0.04957945172741198</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>192</v>
+      </c>
+      <c r="J59" t="n">
+        <v>394</v>
+      </c>
+      <c r="K59" t="n">
+        <v>50.18437123046131</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2432594274.506105</v>
+        <v>2292881581.116217</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1312193295658079</v>
+        <v>0.1868320557065439</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02804321897124608</v>
+        <v>0.02874651442924138</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>72</v>
+      </c>
+      <c r="J60" t="n">
+        <v>391</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3363563496.073905</v>
+        <v>2926322049.912652</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1417986779795736</v>
+        <v>0.1635287925293068</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02324055582524888</v>
+        <v>0.02394756221158864</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2076973884.67976</v>
+        <v>2021672864.372522</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1900267280338374</v>
+        <v>0.1384898032588986</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04743253531132809</v>
+        <v>0.04560374203490223</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3527585328.325739</v>
+        <v>3747498230.744303</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07008340108954483</v>
+        <v>0.08412601921290452</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03929899670259651</v>
+        <v>0.03459707983712516</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>196</v>
+      </c>
+      <c r="J63" t="n">
+        <v>393</v>
+      </c>
+      <c r="K63" t="n">
+        <v>49.00407335482826</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5550992231.613471</v>
+        <v>3757998090.699734</v>
       </c>
       <c r="F64" t="n">
-        <v>0.15282666495293</v>
+        <v>0.1181035878581468</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02603542846774289</v>
+        <v>0.03461150444922514</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>196</v>
+      </c>
+      <c r="J64" t="n">
+        <v>393</v>
+      </c>
+      <c r="K64" t="n">
+        <v>48.70004702492163</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2734,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5726921673.493368</v>
+        <v>3941915670.650735</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1092925976568232</v>
+        <v>0.1595120756387993</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03196683132385388</v>
+        <v>0.02274180325321604</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>293</v>
+      </c>
+      <c r="J65" t="n">
+        <v>394</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4210398765.923646</v>
+        <v>5136070816.621211</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1282503301130652</v>
+        <v>0.129771682843848</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04746483056894809</v>
+        <v>0.03410218185116631</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>195</v>
+      </c>
+      <c r="J66" t="n">
+        <v>393</v>
+      </c>
+      <c r="K66" t="n">
+        <v>45.026326324237</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2145332214.490662</v>
+        <v>2240251634.474602</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08661890688727253</v>
+        <v>0.08575102222754627</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03534417593831252</v>
+        <v>0.04010993141696872</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4494392348.964511</v>
+        <v>3894810792.22124</v>
       </c>
       <c r="F68" t="n">
-        <v>0.139116963043431</v>
+        <v>0.1320340475737564</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03746247281193791</v>
+        <v>0.05158447778548618</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>214</v>
+      </c>
+      <c r="J68" t="n">
+        <v>394</v>
+      </c>
+      <c r="K68" t="n">
+        <v>49.76660481673683</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1578917080.930781</v>
+        <v>1809151716.55353</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1542328233040065</v>
+        <v>0.1735411185693351</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04536232634987834</v>
+        <v>0.0536157926966724</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2291556957.927149</v>
+        <v>3397778842.421749</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06993043281058194</v>
+        <v>0.0670070676709469</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04960643756736838</v>
+        <v>0.03163822817097516</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4774468615.271993</v>
+        <v>3499166868.644045</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1423848953365351</v>
+        <v>0.1530765075493095</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02118091315403445</v>
+        <v>0.03359891328619342</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>280</v>
+      </c>
+      <c r="J71" t="n">
+        <v>393</v>
+      </c>
+      <c r="K71" t="n">
+        <v>42.20235440633792</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1452802642.638891</v>
+        <v>2012330885.813483</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09493886906623528</v>
+        <v>0.1044239150857492</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05087503543608861</v>
+        <v>0.04520727878695403</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2572124615.97061</v>
+        <v>2759334476.421023</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09972235120743558</v>
+        <v>0.09826583553821544</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05137164716197513</v>
+        <v>0.03272779659407444</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3055,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3658535823.256891</v>
+        <v>3296446040.137762</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1181922619111827</v>
+        <v>0.1499338588492749</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03176939327477548</v>
+        <v>0.02790811059611654</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>113</v>
+      </c>
+      <c r="J74" t="n">
+        <v>393</v>
+      </c>
+      <c r="K74" t="n">
+        <v>49.672141388146</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1736065669.191997</v>
+        <v>1751965873.341736</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1202181806775002</v>
+        <v>0.1521337168473362</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02624471709699888</v>
+        <v>0.0270758219950204</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3121,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4485900845.266602</v>
+        <v>5075365506.018185</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1139846466705607</v>
+        <v>0.1031812837893694</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02754203556469558</v>
+        <v>0.03232116022016751</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>186</v>
+      </c>
+      <c r="J76" t="n">
+        <v>393</v>
+      </c>
+      <c r="K76" t="n">
+        <v>47.86320770587708</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3164,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1664127971.488618</v>
+        <v>2092770882.256112</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1347456367464143</v>
+        <v>0.1680224804325866</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01917801252371854</v>
+        <v>0.02491034772314384</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3199,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4684875478.302027</v>
+        <v>3949767295.452631</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1270159890087714</v>
+        <v>0.112277765796699</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05580473931926265</v>
+        <v>0.04613517593030423</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>196</v>
+      </c>
+      <c r="J78" t="n">
+        <v>394</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1534595078.610387</v>
+        <v>1362947289.779764</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1580242236786422</v>
+        <v>0.1550628201540878</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03559941297714879</v>
+        <v>0.03596643245014033</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5216994336.440095</v>
+        <v>4608201133.117776</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09539883382049248</v>
+        <v>0.09225704145454101</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02731222023664766</v>
+        <v>0.03658454445814387</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>192</v>
+      </c>
+      <c r="J80" t="n">
+        <v>394</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3304,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3679948180.645989</v>
+        <v>3926578642.746481</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09606160135932618</v>
+        <v>0.1250307021847202</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02967325045112137</v>
+        <v>0.03033119424160618</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>183</v>
+      </c>
+      <c r="J81" t="n">
+        <v>394</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4041856961.462545</v>
+        <v>5662933912.302042</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2094237177192618</v>
+        <v>0.1335574562492492</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02761545382139194</v>
+        <v>0.02237341234452028</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>270</v>
+      </c>
+      <c r="J82" t="n">
+        <v>394</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1760542856.983056</v>
+        <v>1694651675.446263</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1513355654089321</v>
+        <v>0.0954304636098634</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03450489713600533</v>
+        <v>0.03371023951721151</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1692908223.542706</v>
+        <v>2071206765.693354</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1094264402878153</v>
+        <v>0.07322709153474942</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04606396484483782</v>
+        <v>0.0512360645379541</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2928367808.283168</v>
+        <v>3598964442.010995</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1290086100486415</v>
+        <v>0.1762423571471484</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04662791234973884</v>
+        <v>0.04734366769287721</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2155373464.350485</v>
+        <v>2019420455.657811</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1182906373192463</v>
+        <v>0.1151635968258677</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0250547389800175</v>
+        <v>0.02491617467821153</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>956621914.0089421</v>
+        <v>1199806817.556089</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1804260442225498</v>
+        <v>0.1528723999724392</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02898642835890732</v>
+        <v>0.03601178715498334</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3117947192.843708</v>
+        <v>2834994178.520535</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1649771354382501</v>
+        <v>0.1164561348436275</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03190698278671621</v>
+        <v>0.03885826178089211</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>50</v>
+      </c>
+      <c r="J88" t="n">
+        <v>392</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2137477453.963066</v>
+        <v>2185327837.357023</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1250944916770029</v>
+        <v>0.1028659874664057</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0353365858985443</v>
+        <v>0.02613000672594747</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1899087101.791042</v>
+        <v>1768786852.194294</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09831080456987454</v>
+        <v>0.1065094699354686</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05185157361735283</v>
+        <v>0.03911980570477071</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1825463146.158386</v>
+        <v>1995349056.956043</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1433935914202235</v>
+        <v>0.1549754800811755</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05983622044913347</v>
+        <v>0.05073390976640123</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2577429461.168363</v>
+        <v>2728639026.122776</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0852245472686806</v>
+        <v>0.09861569327688917</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04122998767895623</v>
+        <v>0.04263622909960088</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4616491490.986366</v>
+        <v>3804330224.385209</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1270151783510569</v>
+        <v>0.1287261784555373</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04968881277583378</v>
+        <v>0.03814885120517642</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>187</v>
+      </c>
+      <c r="J93" t="n">
+        <v>394</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1519793753.718603</v>
+        <v>1531842133.230153</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1578265360821109</v>
+        <v>0.1445378006276372</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04188260697589727</v>
+        <v>0.03846358040239237</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3209859591.616342</v>
+        <v>2283461150.258858</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1027343049289556</v>
+        <v>0.1304402631504622</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03851250010030859</v>
+        <v>0.03252853959803169</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1997236521.49948</v>
+        <v>1698007506.809027</v>
       </c>
       <c r="F96" t="n">
-        <v>0.118972216254148</v>
+        <v>0.1237912728151273</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03397682071170437</v>
+        <v>0.04396686407279671</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4814985371.960795</v>
+        <v>4111708981.76127</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1544371643167667</v>
+        <v>0.1447231457856668</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02071723086535459</v>
+        <v>0.01899512124914628</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>205</v>
+      </c>
+      <c r="J97" t="n">
+        <v>394</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3074621490.957564</v>
+        <v>2497254186.480054</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1162533243098372</v>
+        <v>0.1055647691929649</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02094596947168704</v>
+        <v>0.02852793709896554</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>100</v>
+      </c>
+      <c r="J98" t="n">
+        <v>391</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2926542042.614992</v>
+        <v>2670554481.078065</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09667429396544865</v>
+        <v>0.1299431513000108</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02694193848744808</v>
+        <v>0.03223032837611286</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3412836891.148448</v>
+        <v>4772912489.231256</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1376269691847548</v>
+        <v>0.1445059537341989</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02126988702594175</v>
+        <v>0.02605701113056496</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>182</v>
+      </c>
+      <c r="J100" t="n">
+        <v>394</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2308781150.888188</v>
+        <v>2561907567.528856</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1809188744450619</v>
+        <v>0.1752669621844306</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04249432035130073</v>
+        <v>0.04827463418470845</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>37</v>
+      </c>
+      <c r="J101" t="n">
+        <v>393</v>
+      </c>
+      <c r="K101" t="n">
+        <v>40.86822798744877</v>
       </c>
     </row>
   </sheetData>
